--- a/public/downloads/template_nilai.xlsx
+++ b/public/downloads/template_nilai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izzat/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/izzat/Documents/kampusss/kuliah/skripsi/sistem/sipreskom/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4498D5B9-F843-B84A-9A66-77CD8C260830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1993CCC1-91A0-024F-97F8-4347714DE3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="860" windowWidth="22020" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,13 @@
     <t>B-</t>
   </si>
   <si>
-    <t>&lt;= contoh</t>
+    <t>8.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -115,14 +112,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,14 +437,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="7"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,10 +456,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -459,24 +467,22 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>1313621013</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>31451033</v>
       </c>
-      <c r="C2" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="2"/>
